--- a/Caballo/graficas del caballo.xlsx
+++ b/Caballo/graficas del caballo.xlsx
@@ -237,25 +237,25 @@
                   <c:v>9.591409142295225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.18281828459045</c:v>
+                  <c:v>230.19381941508539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.548454853771347</c:v>
+                  <c:v>3480530.5495560914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230.19381941508539</c:v>
+                  <c:v>200679038214085.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1150.969097075427</c:v>
+                  <c:v>1.4877436181766631E+26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6905.8145824525618</c:v>
+                  <c:v>3.5679401954454751E+42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48340.702077167931</c:v>
+                  <c:v>5.834280231790658E+63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>386725.61661734345</c:v>
+                  <c:v>1.2170244814054833E+90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2223,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>(5*EXP(1)-4)*FACT(A2)</f>
+        <f>(5*EXP(1)-4)*FACT(A2^2)</f>
         <v>9.591409142295225</v>
       </c>
       <c r="C2">
@@ -2260,8 +2260,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B9" si="0">(5*EXP(1)-4)*FACT(A3)</f>
-        <v>19.18281828459045</v>
+        <f t="shared" ref="B3:B8" si="0">(5*EXP(1)-4)*FACT(A3^2)</f>
+        <v>230.19381941508539</v>
       </c>
       <c r="C3">
         <v>4.7261599999999998E-4</v>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>57.548454853771347</v>
+        <v>3480530.5495560914</v>
       </c>
       <c r="C4">
         <v>2.8356900000000001E-3</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>230.19381941508539</v>
+        <v>200679038214085.28</v>
       </c>
       <c r="C5">
         <v>0.86441400000000002</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1150.969097075427</v>
+        <v>1.4877436181766631E+26</v>
       </c>
       <c r="C6">
         <v>4.4898500000000001E-2</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>6905.8145824525618</v>
+        <v>3.5679401954454751E+42</v>
       </c>
       <c r="C7">
         <v>28.775200000000002</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>48340.702077167931</v>
+        <v>5.834280231790658E+63</v>
       </c>
       <c r="C8">
         <v>23.3203</v>
@@ -2332,8 +2332,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>386725.61661734345</v>
+        <f>(5*EXP(1)-4)*FACT(A9^2)</f>
+        <v>1.2170244814054833E+90</v>
       </c>
       <c r="C9">
         <v>44522.1</v>

--- a/Caballo/graficas del caballo.xlsx
+++ b/Caballo/graficas del caballo.xlsx
@@ -122,12 +122,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-CO"/>
-              <a:t>T(n)=(5e-4)n!</a:t>
+              <a:t>T(n)=</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> 8^(n^2)-1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36918044619422569"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -234,28 +245,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.591409142295225</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.19381941508539</c:v>
+                  <c:v>4095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3480530.5495560914</c:v>
+                  <c:v>134217727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200679038214085.28</c:v>
+                  <c:v>281474976710655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4877436181766631E+26</c:v>
+                  <c:v>3.7778931862957162E+22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5679401954454751E+42</c:v>
+                  <c:v>3.2451855365842673E+32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.834280231790658E+63</c:v>
+                  <c:v>1.7840596158824499E+44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2170244814054833E+90</c:v>
+                  <c:v>6.2771017353866808E+57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2248,8 +2259,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>(5*EXP(1)-4)*FACT(A2^2)</f>
-        <v>9.591409142295225</v>
+        <f>8^(A2*A2)-1</f>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>7.5618500000000002E-3</v>
@@ -2260,8 +2271,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">(5*EXP(1)-4)*FACT(A3^2)</f>
-        <v>230.19381941508539</v>
+        <f t="shared" ref="B3:B9" si="0">8^(A3*A3)-1</f>
+        <v>4095</v>
       </c>
       <c r="C3">
         <v>4.7261599999999998E-4</v>
@@ -2273,7 +2284,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3480530.5495560914</v>
+        <v>134217727</v>
       </c>
       <c r="C4">
         <v>2.8356900000000001E-3</v>
@@ -2285,7 +2296,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>200679038214085.28</v>
+        <v>281474976710655</v>
       </c>
       <c r="C5">
         <v>0.86441400000000002</v>
@@ -2297,7 +2308,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>1.4877436181766631E+26</v>
+        <v>3.7778931862957162E+22</v>
       </c>
       <c r="C6">
         <v>4.4898500000000001E-2</v>
@@ -2309,7 +2320,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>3.5679401954454751E+42</v>
+        <v>3.2451855365842673E+32</v>
       </c>
       <c r="C7">
         <v>28.775200000000002</v>
@@ -2321,7 +2332,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>5.834280231790658E+63</v>
+        <v>1.7840596158824499E+44</v>
       </c>
       <c r="C8">
         <v>23.3203</v>
@@ -2332,8 +2343,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>(5*EXP(1)-4)*FACT(A9^2)</f>
-        <v>1.2170244814054833E+90</v>
+        <f t="shared" si="0"/>
+        <v>6.2771017353866808E+57</v>
       </c>
       <c r="C9">
         <v>44522.1</v>
